--- a/WelbornEdward-2101-UserStoriesandFunctionalRequirements.xlsx
+++ b/WelbornEdward-2101-UserStoriesandFunctionalRequirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Full-Sail-University-Projects\DVP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58FB400-BA2B-478C-AB1C-CF155BD797EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6368DEE6-12F8-4109-9F71-4565213251A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Milestone Plan</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Approved</t>
   </si>
   <si>
-    <t>Revision Needed</t>
-  </si>
-  <si>
     <t>Pending</t>
   </si>
   <si>
@@ -80,13 +77,25 @@
   </si>
   <si>
     <t>As a Casual gamer, I can't decide which game they want to play next</t>
+  </si>
+  <si>
+    <t>Users must have a way to add, edit or remove consoles they own</t>
+  </si>
+  <si>
+    <t>User must have a way to view for games they own by console</t>
+  </si>
+  <si>
+    <t>As a computer gamer, I should be able to  view games information</t>
+  </si>
+  <si>
+    <t>Application may connect to web and search for the game chosen to show the game information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -132,6 +141,24 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -172,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -212,21 +239,75 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FFF3F3F3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEFEFEF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor rgb="FFE69138"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF1C232"/>
+          <bgColor rgb="FFF1C232"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF3F3F3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -646,14 +727,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -665,7 +747,7 @@
     <col min="11" max="11" width="13.42578125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="47.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -681,14 +763,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
@@ -711,7 +793,9 @@
       <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
@@ -722,14 +806,14 @@
         <f>PRODUCT(C2,B2)</f>
         <v>25</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="E2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
@@ -752,14 +836,14 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="E3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="14"/>
       <c r="L3" s="10" t="s">
         <v>9</v>
@@ -777,14 +861,14 @@
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="E4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="14"/>
       <c r="L4" s="10" t="s">
         <v>9</v>
@@ -795,211 +879,289 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8">
+    <row r="5" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D5" s="8">
-        <f>PRODUCT(B5:C5)</f>
+      <c r="D6" s="8">
+        <f>PRODUCT(B6:C6)</f>
         <v>20</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="15"/>
-      <c r="N5" t="e">
+      <c r="E6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
+      <c r="N6" t="e">
         <f>SUM(#REF!+1)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" t="e">
-        <f t="shared" ref="N6" si="1">SUM(N5+1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="E7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="14"/>
       <c r="L7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" t="e">
-        <f>SUM(#REF!+1)</f>
+        <f t="shared" ref="N7" si="1">SUM(N6+1)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8">
-        <f>PRODUCT(B8:C8)</f>
-        <v>20</v>
-      </c>
-      <c r="E8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="9"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="15"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="E9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="14"/>
       <c r="L9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M9" s="15"/>
-      <c r="N9">
-        <f>SUM(N8+1)</f>
+      <c r="N9" t="e">
+        <f>SUM(#REF!+1)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8">
+        <f>PRODUCT(B10:C10)</f>
+        <v>20</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11">
+        <f>SUM(N10+1)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="8">
+        <v>20</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
+        <v>3</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
     <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
-  <conditionalFormatting sqref="L2 L5:L9">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="L2 L6:L11">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2 L5 L8">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+  <conditionalFormatting sqref="L2 L6 L10">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Declined"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="3">
-      <formula>LEN(TRIM(A8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D5 D8">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+  <conditionalFormatting sqref="A10">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2 D6 D10">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="between">
       <formula>1</formula>
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D5 D8">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
+  <conditionalFormatting sqref="D2 D6 D10">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="between">
       <formula>6</formula>
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D5 D8">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="between">
+  <conditionalFormatting sqref="D2 D6 D10">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="between">
       <formula>15</formula>
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D5 D8">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="7">
+  <conditionalFormatting sqref="D2 D6 D10">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="15">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L4">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+  <conditionalFormatting sqref="L3:L5">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L9">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+  <conditionalFormatting sqref="L3:L11">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>"Declined"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L9">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+  <conditionalFormatting sqref="L3:L11">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>"Revision Needed"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>1</formula>
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+      <formula>6</formula>
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+      <formula>15</formula>
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(D12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L3:L4 L9 L6:L7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L3:L5 L11 L7:L9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pending,Approved,Revision Needed,Declined"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select the user story rank." sqref="B2:C2 B5:C5 B8:C8" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select the user story rank." sqref="B2:C2 B6:C6 B10:C10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"5,4,3,2,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a milestone." sqref="A3:A4 A9 A6:A7" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a milestone." sqref="A3:A5 A11 A7:A9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="36" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>